--- a/rp/推广计划.xlsx
+++ b/rp/推广计划.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="推广计划" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>平台</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,6 +205,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>百度知道，自问自答；或回答别人问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信导航网站广告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.新浪微博取好名字（如：微投稿weitougao.cn)
 2.找相关微博主（可以分类检索）
 3.加关注
@@ -212,15 +224,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>百度知道，自问自答；或回答别人问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信导航网站广告</t>
+    <t>免费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用个人号关注微信公众号，然后私发消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.准备发送广告的微信公众号清单
+2.找一些关系好的微信好友，分配关注任务（每人900个左右）
+3.每人每天关注40-50个微信公众号（微信限额每天最多关注40-50）
+4.发送广告信息
+5.如果可以，删除掉已关注公众号，循环2.3.4步</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -583,17 +603,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="40.375" customWidth="1"/>
     <col min="3" max="3" width="67.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.375" customWidth="1"/>
+    <col min="4" max="4" width="62.875" customWidth="1"/>
     <col min="5" max="5" width="39" customWidth="1"/>
     <col min="6" max="6" width="93.375" bestFit="1" customWidth="1"/>
   </cols>
@@ -693,10 +713,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
         <v>43</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -736,7 +756,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>35</v>
@@ -767,7 +787,7 @@
         <v>40</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -782,6 +802,20 @@
       </c>
       <c r="D13" s="1" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/rp/推广计划.xlsx
+++ b/rp/推广计划.xlsx
@@ -232,15 +232,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用个人号关注微信公众号，然后私发消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.准备发送广告的微信公众号清单
 2.找一些关系好的微信好友，分配关注任务（每人900个左右）
 3.每人每天关注40-50个微信公众号（微信限额每天最多关注40-50）
 4.发送广告信息
 5.如果可以，删除掉已关注公众号，循环2.3.4步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用个人号关注微信公众号，然后私发消息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -605,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -720,7 +720,7 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -762,7 +762,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -812,10 +812,10 @@
         <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
